--- a/Calulations.xlsx
+++ b/Calulations.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="25125" windowHeight="12210" xr2:uid="{E8B0BA14-987A-41F4-BF7A-A57D6CD01482}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="12210" xr2:uid="{E8B0BA14-987A-41F4-BF7A-A57D6CD01482}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -762,7 +762,7 @@
   <dimension ref="B1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
